--- a/size.xlsx
+++ b/size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\GitHub\DAT601\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90133E56-8E9F-4113-B6F7-E4FED5EF4BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2608981-5F4E-4B61-A242-F6C7CDCBF45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63194D84-6449-4E61-ADF5-CF5CE7706D3C}"/>
+    <workbookView xWindow="17976" yWindow="3024" windowWidth="15336" windowHeight="7920" xr2:uid="{63194D84-6449-4E61-ADF5-CF5CE7706D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="73">
   <si>
     <t>Number of Rows</t>
   </si>
@@ -293,13 +293,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBEA975-4DDF-4D98-BED5-8CE7095E7915}">
-  <dimension ref="A2:Z57"/>
+  <dimension ref="A2:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,7 +632,7 @@
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -640,6 +641,7 @@
     <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -650,13 +652,13 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="e">
+      <c r="B2">
         <f>CEILING(SUM($M$5:$M$69) / 1048576, 1)</f>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -736,7 +738,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6">
@@ -745,41 +747,41 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
       </c>
       <c r="G6">
         <f>2+(($C$6+7)/8)</f>
         <v>3.125</v>
       </c>
-      <c r="H6" t="e">
+      <c r="H6">
         <f>2+$F$6+($E$6*2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" t="e">
+        <v>68</v>
+      </c>
+      <c r="I6">
         <f>$D$6+$H$6+$G$6+4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" t="e">
+        <v>79.125</v>
+      </c>
+      <c r="J6">
         <f>8096/($I$6 + 2)</f>
-        <v>#VALUE!</v>
+        <v>99.79661016949153</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" t="e">
+      <c r="L6">
         <f>CEILING($B$6/$J$6,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>3</v>
+      </c>
+      <c r="M6">
         <f>(8192*$L$6)+($K$6*$B$6)</f>
-        <v>#VALUE!</v>
+        <v>24576</v>
       </c>
       <c r="N6" t="e">
         <f ca="1">SUM($Z$6:$Z$6)</f>
@@ -819,9 +821,9 @@
         <f>$S$6+$W$6+$V$6+4</f>
         <v>10</v>
       </c>
-      <c r="Y6" t="e">
+      <c r="Y6">
         <f>8096/($I$6 + 2)</f>
-        <v>#VALUE!</v>
+        <v>99.79661016949153</v>
       </c>
       <c r="Z6" t="e">
         <f ca="1">CalculateClusteredIndexSize($B$6, $Y$6)</f>
@@ -829,17 +831,17 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>10000000</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>72</v>
+      <c r="D7">
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>72</v>
@@ -851,28 +853,28 @@
         <f t="shared" ref="G7:G57" si="0">2+(($C$6+7)/8)</f>
         <v>3.125</v>
       </c>
-      <c r="H7" t="e">
+      <c r="H7">
         <f t="shared" ref="H7:H57" si="1">2+$F$6+($E$6*2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" t="e">
+        <v>68</v>
+      </c>
+      <c r="I7">
         <f t="shared" ref="I7:I57" si="2">$D$6+$H$6+$G$6+4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" t="e">
+        <v>79.125</v>
+      </c>
+      <c r="J7">
         <f t="shared" ref="J7:J57" si="3">8096/($I$6 + 2)</f>
-        <v>#VALUE!</v>
+        <v>99.79661016949153</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" t="e">
+      <c r="L7">
         <f t="shared" ref="L7:L57" si="4">CEILING($B$6/$J$6,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <f t="shared" ref="M7:M57" si="5">(8192*$L$6)+($K$6*$B$6)</f>
-        <v>#VALUE!</v>
+        <v>24576</v>
       </c>
       <c r="N7" t="e">
         <f t="shared" ref="N7:N57" ca="1" si="6">SUM($Z$6:$Z$6)</f>
@@ -884,7 +886,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8">
@@ -906,28 +908,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N8" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -939,10 +941,10 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>50000</v>
       </c>
       <c r="C9">
@@ -961,28 +963,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H9" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -994,10 +996,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>250000000</v>
       </c>
       <c r="C10">
@@ -1016,28 +1018,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H10" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I10" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K10">
         <v>4</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1049,10 +1051,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>100</v>
       </c>
       <c r="C11">
@@ -1071,28 +1073,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H11" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N11" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1104,10 +1106,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>420000</v>
       </c>
       <c r="C12">
@@ -1126,28 +1128,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H12" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K12">
         <v>6</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N12" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1159,10 +1161,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>25000</v>
       </c>
       <c r="C13">
@@ -1181,28 +1183,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K13">
         <v>7</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M13" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N13" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1214,10 +1216,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>563100</v>
       </c>
       <c r="C14">
@@ -1236,28 +1238,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H14" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I14" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K14">
         <v>8</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N14" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1269,10 +1271,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>70</v>
       </c>
       <c r="C15">
@@ -1291,28 +1293,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H15" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I15" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K15">
         <v>9</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M15" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N15" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1324,10 +1326,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>562100</v>
       </c>
       <c r="C16">
@@ -1346,28 +1348,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H16" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I16" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K16">
         <v>10</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M16" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N16" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1379,10 +1381,10 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>1000</v>
       </c>
       <c r="C17">
@@ -1401,28 +1403,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H17" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I17" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K17">
         <v>11</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M17" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N17" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1434,10 +1436,10 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>10</v>
       </c>
       <c r="C18">
@@ -1456,28 +1458,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K18">
         <v>12</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M18" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N18" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1489,10 +1491,10 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>500</v>
       </c>
       <c r="C19">
@@ -1511,28 +1513,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H19" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I19" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K19">
         <v>13</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M19" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N19" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1544,10 +1546,10 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>200</v>
       </c>
       <c r="C20">
@@ -1566,28 +1568,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H20" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K20">
         <v>14</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M20" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N20" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1599,10 +1601,10 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>290</v>
       </c>
       <c r="C21">
@@ -1621,28 +1623,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H21" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K21">
         <v>15</v>
       </c>
-      <c r="L21" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M21" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N21" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1654,7 +1656,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B22">
@@ -1676,28 +1678,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H22" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I22" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J22" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K22">
         <v>16</v>
       </c>
-      <c r="L22" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M22" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N22" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1709,7 +1711,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B23">
@@ -1731,28 +1733,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H23" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K23">
         <v>17</v>
       </c>
-      <c r="L23" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M23" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N23" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1764,10 +1766,10 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>40000</v>
       </c>
       <c r="C24">
@@ -1786,28 +1788,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H24" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I24" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J24" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K24">
         <v>18</v>
       </c>
-      <c r="L24" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M24" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N24" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1819,10 +1821,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>50000</v>
       </c>
       <c r="C25">
@@ -1841,28 +1843,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H25" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J25" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K25">
         <v>19</v>
       </c>
-      <c r="L25" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M25" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N25" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1874,7 +1876,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B26">
@@ -1896,28 +1898,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H26" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K26">
         <v>20</v>
       </c>
-      <c r="L26" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M26" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N26" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1929,10 +1931,10 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>500000</v>
       </c>
       <c r="C27">
@@ -1951,28 +1953,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H27" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J27" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K27">
         <v>21</v>
       </c>
-      <c r="L27" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M27" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N27" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -1984,10 +1986,10 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>500000</v>
       </c>
       <c r="C28">
@@ -2006,28 +2008,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H28" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J28" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K28">
         <v>22</v>
       </c>
-      <c r="L28" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M28" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N28" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2039,10 +2041,10 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>100000</v>
       </c>
       <c r="C29">
@@ -2061,28 +2063,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H29" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K29">
         <v>23</v>
       </c>
-      <c r="L29" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M29" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N29" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2094,10 +2096,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>2500</v>
       </c>
       <c r="C30">
@@ -2116,28 +2118,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H30" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K30">
         <v>24</v>
       </c>
-      <c r="L30" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M30" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N30" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2149,10 +2151,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>100</v>
       </c>
       <c r="C31">
@@ -2171,28 +2173,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H31" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K31">
         <v>25</v>
       </c>
-      <c r="L31" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N31" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2204,10 +2206,10 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>500000</v>
       </c>
       <c r="C32">
@@ -2226,28 +2228,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H32" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J32" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K32">
         <v>26</v>
       </c>
-      <c r="L32" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M32" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N32" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2259,10 +2261,10 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>100000</v>
       </c>
       <c r="C33">
@@ -2281,28 +2283,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H33" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K33">
         <v>27</v>
       </c>
-      <c r="L33" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M33" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N33" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2314,10 +2316,10 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>2500</v>
       </c>
       <c r="C34">
@@ -2336,28 +2338,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H34" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J34" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K34">
         <v>28</v>
       </c>
-      <c r="L34" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M34" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N34" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2369,10 +2371,10 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>100</v>
       </c>
       <c r="C35">
@@ -2391,28 +2393,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H35" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I35" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J35" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K35">
         <v>29</v>
       </c>
-      <c r="L35" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M35" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N35" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2424,10 +2426,10 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>100000</v>
       </c>
       <c r="C36">
@@ -2446,28 +2448,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H36" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I36" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J36" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K36">
         <v>30</v>
       </c>
-      <c r="L36" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M36" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N36" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2479,10 +2481,10 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>60000</v>
       </c>
       <c r="C37">
@@ -2501,28 +2503,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H37" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I37" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J37" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K37">
         <v>31</v>
       </c>
-      <c r="L37" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M37" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N37" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2534,10 +2536,10 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>1000</v>
       </c>
       <c r="C38">
@@ -2556,28 +2558,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H38" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I38" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J38" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K38">
         <v>32</v>
       </c>
-      <c r="L38" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M38" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N38" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2589,10 +2591,10 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>250</v>
       </c>
       <c r="C39">
@@ -2611,28 +2613,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H39" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I39" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J39" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K39">
         <v>33</v>
       </c>
-      <c r="L39" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M39" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N39" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2644,10 +2646,10 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>500000</v>
       </c>
       <c r="C40">
@@ -2666,28 +2668,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H40" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I40" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J40" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K40">
         <v>34</v>
       </c>
-      <c r="L40" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M40" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N40" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2699,10 +2701,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>3739482745</v>
       </c>
       <c r="C41">
@@ -2721,28 +2723,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H41" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I41" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J41" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K41">
         <v>35</v>
       </c>
-      <c r="L41" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M41" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N41" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2754,10 +2756,10 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>23465</v>
       </c>
       <c r="C42">
@@ -2776,28 +2778,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H42" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I42" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J42" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K42">
         <v>36</v>
       </c>
-      <c r="L42" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M42" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N42" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2809,10 +2811,10 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>98765432</v>
       </c>
       <c r="C43">
@@ -2831,28 +2833,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H43" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I43" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J43" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K43">
         <v>37</v>
       </c>
-      <c r="L43" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M43" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N43" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2864,10 +2866,10 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>32455345</v>
       </c>
       <c r="C44">
@@ -2886,28 +2888,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H44" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I44" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J44" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K44">
         <v>38</v>
       </c>
-      <c r="L44" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M44" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N44" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2919,10 +2921,10 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>150</v>
       </c>
       <c r="C45">
@@ -2941,28 +2943,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H45" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I45" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J45" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K45">
         <v>39</v>
       </c>
-      <c r="L45" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M45" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N45" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -2974,10 +2976,10 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>23366548</v>
       </c>
       <c r="C46">
@@ -2996,28 +2998,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H46" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I46" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J46" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K46">
         <v>40</v>
       </c>
-      <c r="L46" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M46" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N46" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3029,10 +3031,10 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>32455345</v>
       </c>
       <c r="C47">
@@ -3051,28 +3053,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H47" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I47" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J47" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K47">
         <v>41</v>
       </c>
-      <c r="L47" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M47" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N47" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3084,10 +3086,10 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>100000000</v>
       </c>
       <c r="C48">
@@ -3106,28 +3108,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H48" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I48" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J48" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K48">
         <v>42</v>
       </c>
-      <c r="L48" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M48" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N48" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3139,10 +3141,10 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="1">
         <v>12399570</v>
       </c>
       <c r="C49">
@@ -3161,28 +3163,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J49" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K49">
         <v>43</v>
       </c>
-      <c r="L49" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M49" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N49" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3194,10 +3196,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>600000</v>
       </c>
       <c r="C50">
@@ -3216,28 +3218,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H50" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J50" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K50">
         <v>44</v>
       </c>
-      <c r="L50" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M50" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N50" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3249,10 +3251,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>1000000</v>
       </c>
       <c r="C51">
@@ -3271,28 +3273,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H51" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I51" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J51" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K51">
         <v>45</v>
       </c>
-      <c r="L51" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M51" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N51" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3304,10 +3306,10 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>87</v>
       </c>
       <c r="C52">
@@ -3326,28 +3328,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H52" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I52" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J52" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K52">
         <v>46</v>
       </c>
-      <c r="L52" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M52" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N52" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3359,10 +3361,10 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="1">
         <v>12000</v>
       </c>
       <c r="C53">
@@ -3381,28 +3383,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H53" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I53" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J53" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K53">
         <v>47</v>
       </c>
-      <c r="L53" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M53" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N53" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3414,10 +3416,10 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="3">
+      <c r="A54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="1">
         <v>10000</v>
       </c>
       <c r="C54">
@@ -3436,28 +3438,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H54" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I54" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J54" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K54">
         <v>48</v>
       </c>
-      <c r="L54" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M54" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N54" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3469,10 +3471,10 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="1">
         <v>400000</v>
       </c>
       <c r="C55">
@@ -3491,28 +3493,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H55" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I55" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J55" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K55">
         <v>49</v>
       </c>
-      <c r="L55" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M55" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N55" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3524,10 +3526,10 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="1">
         <v>200000</v>
       </c>
       <c r="C56">
@@ -3546,28 +3548,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H56" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I56" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J56" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K56">
         <v>50</v>
       </c>
-      <c r="L56" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M56" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N56" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3579,10 +3581,10 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="1">
         <v>100000</v>
       </c>
       <c r="C57">
@@ -3601,28 +3603,28 @@
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
-      <c r="H57" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I57" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J57" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>79.125</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>99.79661016949153</v>
       </c>
       <c r="K57">
         <v>51</v>
       </c>
-      <c r="L57" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M57" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="5"/>
+        <v>24576</v>
       </c>
       <c r="N57" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -3632,6 +3634,9 @@
         <f t="shared" ca="1" si="7"/>
         <v>#NAME?</v>
       </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
